--- a/ESTUDO/PhpSpreadsheet/testes/DOCUMENTATION.xlsx
+++ b/ESTUDO/PhpSpreadsheet/testes/DOCUMENTATION.xlsx
@@ -398,7 +398,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>44795.614409722</v>
+        <v>44796.012974537</v>
       </c>
     </row>
     <row r="7" spans="1:3">
